--- a/data_analysis_KS.xlsx
+++ b/data_analysis_KS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\private_ks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB5DE0F-B9EF-4706-8E17-E691CE9E678B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED43BEE0-8C85-437C-8A86-A60970B7092D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" firstSheet="1" activeTab="4" xr2:uid="{41E89C38-1808-4A6F-A1A3-7BA05D972D1F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" firstSheet="3" activeTab="5" xr2:uid="{41E89C38-1808-4A6F-A1A3-7BA05D972D1F}"/>
   </bookViews>
   <sheets>
     <sheet name="sat solver comparison" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="original vs. optimized color" sheetId="4" r:id="rId3"/>
     <sheet name="colorability" sheetId="3" r:id="rId4"/>
     <sheet name="Programmable Interface Configur" sheetId="5" r:id="rId5"/>
+    <sheet name="updated data for colorability c" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t>xMapleSAT</t>
   </si>
@@ -146,6 +147,54 @@
   </si>
   <si>
     <t>all blocking clauses optimized</t>
+  </si>
+  <si>
+    <t>no block clauses</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>blocked</t>
+  </si>
+  <si>
+    <t>{6: 1675, 7: 167, 5: 1413, 4: 459, 3: 47, 8: 1}</t>
+  </si>
+  <si>
+    <t>block up math.ceil(n/3)-1</t>
+  </si>
+  <si>
+    <t>{6: 147}</t>
+  </si>
+  <si>
+    <t>block up math.ceil(n/3)+1</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>block math.floor(n/3) and +1</t>
+  </si>
+  <si>
+    <t>{6: 151}</t>
+  </si>
+  <si>
+    <t>{5: 644, 4: 97}</t>
+  </si>
+  <si>
+    <t>{5: 530}</t>
+  </si>
+  <si>
+    <t>not block math.floor(n/3) and math.floor(n/3-1)</t>
+  </si>
+  <si>
+    <t>not block math.floor(n/3)</t>
+  </si>
+  <si>
+    <t>not block math.floor(n/3) and math.floor(n/3-1) and math.floor(n/3+1)</t>
+  </si>
+  <si>
+    <t>{6: 1613, 5: 1344, 4: 431}</t>
   </si>
 </sst>
 </file>
@@ -20295,7 +20344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6EB84A-8799-46D9-9E80-8077F8775DFB}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -20462,4 +20511,179 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA8CA3D-7869-4709-A073-6B43582D484E}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="38.19921875" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.9296875" customWidth="1"/>
+    <col min="6" max="6" width="38.73046875" customWidth="1"/>
+    <col min="7" max="7" width="21.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4616</v>
+      </c>
+      <c r="C2" s="1">
+        <v>13480.79</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4661</v>
+      </c>
+      <c r="E2" s="1">
+        <v>15243</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3861</v>
+      </c>
+      <c r="G2" s="1">
+        <v>4239</v>
+      </c>
+      <c r="H2" s="1">
+        <v>4693.6141723000001</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>